--- a/test.xlsx
+++ b/test.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm AM/PM"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,83 +52,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,60 +355,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n">
-        <v>0.3895833333333333</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0.38958333333333328</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
